--- a/data/trans_camb/P59A-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P59A-Dificultad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>5.163838274337191</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>1.106305563471781</v>
+        <v>1.106305563471778</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.0386704122068</v>
+        <v>-6.092586328611258</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.882847716686771</v>
+        <v>-3.102209769435883</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-10.77479854148852</v>
+        <v>-10.57179396603969</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.180107809753223</v>
+        <v>2.69552772604298</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.209487284840341</v>
+        <v>1.260454947840898</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.7367889985703754</v>
+        <v>-0.7065395515920918</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.473123237363065</v>
+        <v>1.624966154173637</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.673492896242755</v>
+        <v>1.804863465160411</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.912292416355378</v>
+        <v>-2.837605936456047</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.918492180676908</v>
+        <v>6.699586188769471</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.310476806817473</v>
+        <v>9.361971199583458</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.008628041874572</v>
+        <v>3.619474749473503</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.07344927576089</v>
+        <v>11.19332716984479</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>9.03678836744319</v>
+        <v>9.482947100940727</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>8.08111286437593</v>
+        <v>8.069424490117132</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>8.416450555698617</v>
+        <v>8.652069602454986</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>8.279533334662098</v>
+        <v>8.328508946245927</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.661471095468444</v>
+        <v>4.471357850133885</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.430183569074617</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.0921629320086486</v>
+        <v>0.09216293200864836</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2365212419397708</v>
+        <v>-0.2595641357584139</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1801511378114777</v>
+        <v>-0.1436318634413201</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4847949130269175</v>
+        <v>-0.4753633224678309</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.2074594188047126</v>
+        <v>0.2239613148884771</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1085057723936762</v>
+        <v>0.1045705291915271</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.07430297513164479</v>
+        <v>-0.08224097450170198</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09987265405735328</v>
+        <v>0.1139857761235754</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1195107433375574</v>
+        <v>0.1257408906710804</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2105858107568887</v>
+        <v>-0.2095187507113292</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.5102405814045845</v>
+        <v>0.4522905664138313</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.6479641248864052</v>
+        <v>0.6539889583123011</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2336278976149154</v>
+        <v>0.2881793786068018</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.635679425617867</v>
+        <v>1.618623893540726</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.395766447736597</v>
+        <v>1.450809493106519</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.233987468119631</v>
+        <v>1.192491861612978</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8125156831720505</v>
+        <v>0.8311453113206568</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.8280209463957252</v>
+        <v>0.831903886307668</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.4646398900129144</v>
+        <v>0.4314171044185383</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>5.329022392676521</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.2443690850102265</v>
+        <v>0.2443690850102251</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>3.540949812242947</v>
@@ -878,7 +878,7 @@
         <v>2.923874170832236</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>1.259122476500474</v>
+        <v>1.259122476500471</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.520078032787063</v>
+        <v>-3.396780964752021</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.689507088934709</v>
+        <v>-4.935533311319266</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.473678211372643</v>
+        <v>-2.602542915060482</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4140703498990923</v>
+        <v>0.416448748295848</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6880391099162786</v>
+        <v>0.5762160225930654</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-3.711268011488975</v>
+        <v>-4.086904679738498</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.04678172970554322</v>
+        <v>-0.1729324660770727</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.3875832533961155</v>
+        <v>-0.1567991004169882</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-2.121574523268313</v>
+        <v>-1.95382408824614</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.957569379667468</v>
+        <v>7.153666024838882</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.265064943329564</v>
+        <v>5.845142233337138</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.576184929299668</v>
+        <v>8.629724838885577</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.960277404884678</v>
+        <v>9.990898371200723</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>9.906527371312295</v>
+        <v>9.880956762127578</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.973590520350035</v>
+        <v>4.074263560722013</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>7.216015254098036</v>
+        <v>6.980447930834571</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>6.788080495296035</v>
+        <v>6.488343169522858</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.682760059695513</v>
+        <v>4.526523353721628</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.5325618830829786</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02442130103622</v>
+        <v>0.02442130103621986</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.3014431092250022</v>
@@ -983,7 +983,7 @@
         <v>0.2489111023237153</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.1071898259893626</v>
+        <v>0.1071898259893624</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.223884770220401</v>
+        <v>-0.2209907068845623</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2983345620691394</v>
+        <v>-0.3078460824156489</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1641285023359976</v>
+        <v>-0.1677577007264828</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.008057558189106057</v>
+        <v>0.02290130322332917</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.05118107100341006</v>
+        <v>0.04022996563715443</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3072306080278653</v>
+        <v>-0.3277141270255775</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.001546247830325054</v>
+        <v>-0.01246483594701309</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.0352256464307999</v>
+        <v>-0.01288858478563141</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.167731672446597</v>
+        <v>-0.1479136389463976</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.6138793533937588</v>
+        <v>0.6606911343683882</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.4974681465772607</v>
+        <v>0.5332551578347593</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.7212533061732911</v>
+        <v>0.7828106479721619</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.210692039034544</v>
+        <v>1.230514004473755</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.300387395144101</v>
+        <v>1.324676023669375</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5314504315005359</v>
+        <v>0.5356942068503121</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7032378348107371</v>
+        <v>0.6927482181402018</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6567448188458258</v>
+        <v>0.6554191630508148</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.4592533895516909</v>
+        <v>0.4484599050486325</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>2.438983280193091</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.6348656783102036</v>
+        <v>0.6348656783102063</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.8018496779558099</v>
@@ -1083,7 +1083,7 @@
         <v>-0.08031245293136369</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>2.846876664643458</v>
+        <v>2.846876664643452</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-0.2036883302357004</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.089547944848197</v>
+        <v>-5.851139101771568</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.028147940342477</v>
+        <v>-2.553646398889919</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.675190079192474</v>
+        <v>-4.171163351110193</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.729143953304479</v>
+        <v>-4.450039963554417</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-5.48456946718863</v>
+        <v>-4.781692124984374</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.885742287193779</v>
+        <v>-1.617864391089264</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-3.749610251619632</v>
+        <v>-3.675285328536037</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.563403569153412</v>
+        <v>-2.272596114170921</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.517166908157823</v>
+        <v>-1.619718284011724</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.700521894391583</v>
+        <v>4.876957121694179</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.522956645385931</v>
+        <v>7.804224523987722</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.642567305726104</v>
+        <v>5.38505580959626</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.174472199054699</v>
+        <v>5.895232438015409</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.827440338107492</v>
+        <v>4.829429513902542</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.105062277298692</v>
+        <v>7.678092900028162</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.403431804676698</v>
+        <v>3.46463499087711</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>4.768461891119044</v>
+        <v>5.04067455699681</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.562926335447689</v>
+        <v>5.027482949372528</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.1882688394091675</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.04900625002509786</v>
+        <v>0.04900625002509808</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.06721136251217817</v>
@@ -1188,7 +1188,7 @@
         <v>-0.006731822106573959</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.238626347051245</v>
+        <v>0.2386263470512445</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.016331668024541</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4061616350125897</v>
+        <v>-0.3985303709336827</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2031755622585762</v>
+        <v>-0.1874289228673508</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2515276947220243</v>
+        <v>-0.2742831499739303</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2690995684159397</v>
+        <v>-0.3226236840946756</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3675611666852025</v>
+        <v>-0.3593974758126713</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1312468089644415</v>
+        <v>-0.1183409053255198</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2699651516946781</v>
+        <v>-0.254256520646935</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1864263367829053</v>
+        <v>-0.1673104762793496</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1065623518263357</v>
+        <v>-0.1159745165310878</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.340692305444306</v>
+        <v>0.4363714578448295</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.7099934447338628</v>
+        <v>0.6944292035588284</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.5318340270541743</v>
+        <v>0.5203318033303186</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.6337847327486347</v>
+        <v>0.6089445697162587</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5113352775442629</v>
+        <v>0.5221998026846624</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.773683023587532</v>
+        <v>0.7972415575813664</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.318537415364867</v>
+        <v>0.3184231141513437</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4344464810004018</v>
+        <v>0.4521731300365482</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.5051930717364465</v>
+        <v>0.4816465243061627</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>2.737827850346794</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>6.643883037354254</v>
+        <v>6.643883037354251</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>1.747598920050539</v>
@@ -1306,7 +1306,7 @@
         <v>6.093518695218308</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>9.188427597442519</v>
+        <v>9.188427597442523</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.247020583418474</v>
+        <v>-2.773380044035471</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.737148728710588</v>
+        <v>2.191459278262651</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5.028931805797414</v>
+        <v>4.255485813593777</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-9.417956787158884</v>
+        <v>-8.437592739641406</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.552178192745817</v>
+        <v>-5.111887434714896</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.270108177741913</v>
+        <v>-1.134889944548432</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-3.527321419719319</v>
+        <v>-3.305559207885516</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.149157970088305</v>
+        <v>1.108933968752027</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>4.157126754899489</v>
+        <v>3.801797815245606</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>12.48609376812494</v>
+        <v>11.37341826260439</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>16.54551951767008</v>
+        <v>15.67077973521846</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>18.00840171558432</v>
+        <v>17.45902834960661</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.640595538559384</v>
+        <v>4.899154383245632</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>10.41856855925639</v>
+        <v>9.867576583454502</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>13.20068370781294</v>
+        <v>13.40494533972019</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>6.683361180107202</v>
+        <v>6.543731817601245</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>11.04187769779066</v>
+        <v>11.53604651890498</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>13.98017559407707</v>
+        <v>13.44436191869663</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.220405041099053</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5348566067511806</v>
+        <v>0.5348566067511804</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.1595333481141801</v>
@@ -1411,7 +1411,7 @@
         <v>0.5562600366086369</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.8387854911711354</v>
+        <v>0.8387854911711358</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2206129730138258</v>
+        <v>-0.233632479349536</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1001586702933529</v>
+        <v>0.1151588119638765</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3551014582228127</v>
+        <v>0.2657700787819453</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.5569335687324922</v>
+        <v>-0.5318942295527866</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2877981693831478</v>
+        <v>-0.3087030996790779</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.08357328753390278</v>
+        <v>-0.0693213793262326</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2677366978352424</v>
+        <v>-0.2383843768168365</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.07296494856587189</v>
+        <v>0.06791371671175234</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.2904582411498524</v>
+        <v>0.2686097678285751</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.959426619562778</v>
+        <v>1.67710794528726</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.490428746370975</v>
+        <v>2.360228208708729</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.734953827762537</v>
+        <v>2.6888332252426</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.6887881261733481</v>
+        <v>0.5735722786789271</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.23341217020423</v>
+        <v>1.136559455524905</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.682834157377292</v>
+        <v>1.760043769273657</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8014609301428183</v>
+        <v>0.8197880474716307</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.276337790255493</v>
+        <v>1.355104643230093</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.714926557521466</v>
+        <v>1.653441598512338</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>3.890878590155958</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2.815597762450497</v>
+        <v>2.8155977624505</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>3.857348242405252</v>
@@ -1520,7 +1520,7 @@
         <v>3.799581750218704</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>3.146290032878261</v>
+        <v>3.146290032878267</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.243102656987674</v>
+        <v>-0.9507418893288941</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1.289778410116628</v>
+        <v>0.798294469010107</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1146456786908435</v>
+        <v>-0.3518662148150339</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.418673272640607</v>
+        <v>1.433263974651567</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1.142420216282204</v>
+        <v>1.340534922386609</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>1.185763132189664</v>
+        <v>0.8645129985130259</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>1.02063667580337</v>
+        <v>0.7855466887606117</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>1.857535713934923</v>
+        <v>1.702097430657426</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>1.229224783519</v>
+        <v>1.213458704729396</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.388551301716648</v>
+        <v>4.837596396561747</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>6.932142051963449</v>
+        <v>6.824863350546682</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5.889866654864509</v>
+        <v>5.530484651875621</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6.288961643705971</v>
+        <v>6.232774496201428</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>6.022703037223738</v>
+        <v>6.075668662328517</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>5.869189760086932</v>
+        <v>5.680113272667116</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>5.016872539655449</v>
+        <v>4.794177699772209</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>5.575405659026782</v>
+        <v>5.565103066799463</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>4.967121465488411</v>
+        <v>5.18673764680516</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.2848586626285811</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.2061352968300986</v>
+        <v>0.2061352968300988</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.372966599566491</v>
@@ -1625,7 +1625,7 @@
         <v>0.3181375369381126</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.2634376695527629</v>
+        <v>0.2634376695527634</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.08158299688350462</v>
+        <v>-0.06358831384267757</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.08237299811970437</v>
+        <v>0.0498997790996081</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.006057213041347488</v>
+        <v>-0.02480952376449201</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1208877873769878</v>
+        <v>0.1158167475728204</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.09632284661032034</v>
+        <v>0.1188189804827031</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.09970933406332438</v>
+        <v>0.07230495403891467</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.07549827167562098</v>
+        <v>0.059778807905461</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.1394471238319853</v>
+        <v>0.136413467708645</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.09850024655427442</v>
+        <v>0.09510871975397861</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.362368760692333</v>
+        <v>0.4075514745908693</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.5634229373609211</v>
+        <v>0.5411167251371941</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.4903890519733546</v>
+        <v>0.4594737954172093</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.6775057494122387</v>
+        <v>0.6899273027651701</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.6588298955441815</v>
+        <v>0.6702634222582345</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.6599302460306843</v>
+        <v>0.6212396710571502</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.435979661609704</v>
+        <v>0.4370183437956905</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.5014264122349423</v>
+        <v>0.5160674406267326</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.4548344196436346</v>
+        <v>0.4702593988031588</v>
       </c>
     </row>
     <row r="34">
